--- a/FileManager/Excel/ListHocVien.xlsx
+++ b/FileManager/Excel/ListHocVien.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOPER\WEBSITE\GitHub\Manager\FileManager\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOPER\WEBSITE\GitHub\NewSkyline\FileManager\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>DANH SÁCH HỌC VIÊN KHÓA KITTTY-1M2DF - 20160400000001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>DANH SÁCH HỌC VIÊN KHÓA KITTTY-1M2DF - 20160500000004</t>
   </si>
   <si>
     <t>STT</t>
@@ -50,16 +50,13 @@
     <t>HỌC PHÍ</t>
   </si>
   <si>
-    <t>Lê thị Huyền</t>
-  </si>
-  <si>
-    <t>Anh</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Chưa đóng</t>
+    <t>Chuẩn</t>
+  </si>
+  <si>
+    <t>Nguyễn</t>
+  </si>
+  <si>
+    <t>Đã đóng</t>
   </si>
 </sst>
 </file>
@@ -433,11 +430,11 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -481,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>1604000010</v>
+        <v>1605000004</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -489,14 +486,12 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>42434</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="5">
-        <v>34826</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/FileManager/Excel/ListHocVien.xlsx
+++ b/FileManager/Excel/ListHocVien.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Hocvien" sheetId="2" r:id="rId2"/>
+    <x:sheet name="DanhSachHocvien" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -37,7 +37,7 @@
     <x:t>HỌC PHÍ</x:t>
   </x:si>
   <x:si>
-    <x:t>1606000004</x:t>
+    <x:t>1607000004</x:t>
   </x:si>
   <x:si>
     <x:t>Lê Hà</x:t>

--- a/FileManager/Excel/ListHocVien.xlsx
+++ b/FileManager/Excel/ListHocVien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>STT</x:t>
   </x:si>
@@ -35,18 +35,6 @@
   </x:si>
   <x:si>
     <x:t>HỌC PHÍ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1607000004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lê Hà</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phương</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Đã đóng</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -92,20 +80,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -428,8 +409,8 @@
   <x:cols>
     <x:col min="1" max="1" width="5.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.7006250000000005" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="5.7006250000000005" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="6.4106250000000005" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="12.550625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="10.270625" style="0" customWidth="1"/>
@@ -459,25 +440,13 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="1">
-        <x:v>42493</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="F2" s="0" t="s"/>
+      <x:c r="G2" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
